--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{543BFEA6-2434-A745-A4FC-82DEC864236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A7B32C0-EAD4-9D40-92BB-7A2FA80538C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="questions_points" sheetId="1" r:id="rId1"/>
+    <sheet name="alle" sheetId="2" r:id="rId1"/>
+    <sheet name="module" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="86" uniqueCount="59">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="144" uniqueCount="81">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -225,6 +226,72 @@
   </si>
   <si>
     <t>Grundlegende Kenntnisse der Programierung in R</t>
+  </si>
+  <si>
+    <t>Visualisierung von Verteilungen</t>
+  </si>
+  <si>
+    <t>Visualisierung der Normalverteilung</t>
+  </si>
+  <si>
+    <t>Visualisierung der Normalverteilung und der Poissonverteilung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnistabelle der zweifaktoriellen ANOVA </t>
+  </si>
+  <si>
+    <t>Die zweifaktorielle ANOVA in R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusammenhang zwischen der ANOVA und dem t-Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interaktion in der zweifaktoriellen ANOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusammenhang zwischen der ANOVA und dem Post-hoc-Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustierung multipler Vergleiche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnung des Compact Letter Displays (CLD) anhand der Matrix der p-Werte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den diagnostische Test am Doppelbaum berechnen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der diagnostische Test und statistische Maßzahlen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modellgüte der linearen Regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualisierung des Regressionskreuzes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfache experimentelle Designs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortgeschrittene experimentelle Designs </t>
+  </si>
+  <si>
+    <t>Fortgeschrittene Kenntnisse der Programierung in R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zerforschen einer wissenschaftlichen Veröffentlichung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zerforschen eines wissenschaftlichen Datensatzes </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die einfaktoriellen ANOVA und der Student t-Test </t>
+  </si>
+  <si>
+    <t>Interpretation der Ergebnisse einer Korrelationsanalyse in R</t>
   </si>
 </sst>
 </file>
@@ -1072,11 +1139,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14812BD-6E06-5C46-8360-204B5BC2386B}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1201,7 +1571,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1209,7 +1579,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1217,7 +1587,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1225,7 +1595,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1233,7 +1603,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -1241,7 +1611,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -1249,7 +1619,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1257,7 +1627,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -1265,7 +1635,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -1273,7 +1643,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1281,7 +1651,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -1289,7 +1659,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1297,7 +1667,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
@@ -1305,7 +1675,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -1313,7 +1683,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -1321,7 +1691,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -1329,7 +1699,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>53</v>
@@ -1337,7 +1707,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -1345,7 +1715,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -1353,7 +1723,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -1361,7 +1731,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -1369,76 +1739,81 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5A7B32C0-EAD4-9D40-92BB-7A2FA80538C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AA8D636-789F-384B-9169-B709A5C8141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="144" uniqueCount="81">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="147" uniqueCount="84">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Interpretation der Ergebnisse einer Korrelationsanalyse in R</t>
+  </si>
+  <si>
+    <t>SoSe 2023</t>
+  </si>
+  <si>
+    <t>WiSe 2023/24</t>
+  </si>
+  <si>
+    <t>SoSe 2024</t>
   </si>
 </sst>
 </file>
@@ -1140,253 +1149,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14812BD-6E06-5C46-8360-204B5BC2386B}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>55</v>
       </c>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AA8D636-789F-384B-9169-B709A5C8141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C92F00F5-7893-1D45-88C5-CED972EFEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="147" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="288" uniqueCount="90">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t>SoSe 2024</t>
+  </si>
+  <si>
+    <t>Angew. Statistik &amp; Versuchswesen</t>
+  </si>
+  <si>
+    <t>Angew. Statistik für Bioverfahrenstechnik</t>
+  </si>
+  <si>
+    <t>Biostatistik</t>
+  </si>
+  <si>
+    <t>Den Chi-Quadrat-Test in einem Fragebogen berechnen</t>
+  </si>
+  <si>
+    <t>Alle Fragen</t>
+  </si>
+  <si>
+    <t>Berechnung des Compact Letter Displays (CLD) anhand der Matrix der p-Werte</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1169,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14812BD-6E06-5C46-8360-204B5BC2386B}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1489,377 +1507,894 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="3" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C92F00F5-7893-1D45-88C5-CED972EFEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{36108D5E-A953-414B-9527-A1983FAD0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="288" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="281" uniqueCount="90">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -1507,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1635,9 +1635,6 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
@@ -1646,9 +1643,6 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
@@ -1779,622 +1773,603 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{36108D5E-A953-414B-9527-A1983FAD0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1CBBD79-55A1-AC43-B034-4DEABB33715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1CBBD79-55A1-AC43-B034-4DEABB33715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{43441FAA-DE4D-CD43-A0B1-78E2A9AFFA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="281" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="280" uniqueCount="90">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1761,9 +1761,6 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>

--- a/Modulfragen.xlsx
+++ b/Modulfragen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{43441FAA-DE4D-CD43-A0B1-78E2A9AFFA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8239318C-F42A-45A9-A36E-C8F02E46004D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="3760" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14730" windowHeight="8740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="280" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="250" uniqueCount="91">
   <si>
     <t>Lfd. Nr.</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Berechnung des Compact Letter Displays (CLD) anhand der Matrix der p-Werte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armee der Finsternis </t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
       <selection activeCell="A2" sqref="A2:A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -1507,13 +1510,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.1640625" customWidth="1"/>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -2247,126 +2250,6 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" t="s">
         <v>23</v>
       </c>
     </row>
